--- a/Code/Results/Cases/Case_0_149/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_149/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.046515455296101</v>
+        <v>1.101054333566038</v>
       </c>
       <c r="D2">
-        <v>1.060439090229259</v>
+        <v>1.110752982992693</v>
       </c>
       <c r="E2">
-        <v>1.054260604385886</v>
+        <v>1.103164413499877</v>
       </c>
       <c r="F2">
-        <v>1.065019092189871</v>
+        <v>1.117972245795065</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066139781217433</v>
+        <v>1.058028964873843</v>
       </c>
       <c r="J2">
-        <v>1.06738864649266</v>
+        <v>1.10583378829899</v>
       </c>
       <c r="K2">
-        <v>1.071116049887581</v>
+        <v>1.11334950570567</v>
       </c>
       <c r="L2">
-        <v>1.065012423810018</v>
+        <v>1.105779761942219</v>
       </c>
       <c r="M2">
-        <v>1.075641254602945</v>
+        <v>1.120551114044796</v>
       </c>
       <c r="N2">
-        <v>1.068904460801868</v>
+        <v>1.107404199119283</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.056863778618564</v>
+        <v>1.102989792001522</v>
       </c>
       <c r="D3">
-        <v>1.070270107608996</v>
+        <v>1.112635034171671</v>
       </c>
       <c r="E3">
-        <v>1.063596893327021</v>
+        <v>1.104939490979827</v>
       </c>
       <c r="F3">
-        <v>1.075070603868804</v>
+        <v>1.119907604759193</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069648506780592</v>
+        <v>1.058533279833621</v>
       </c>
       <c r="J3">
-        <v>1.075915797848617</v>
+        <v>1.107433775406764</v>
       </c>
       <c r="K3">
-        <v>1.080076398742058</v>
+        <v>1.115052904158254</v>
       </c>
       <c r="L3">
-        <v>1.073475911325086</v>
+        <v>1.107375049459709</v>
       </c>
       <c r="M3">
-        <v>1.084825261671863</v>
+        <v>1.122308997660593</v>
       </c>
       <c r="N3">
-        <v>1.077443721690829</v>
+        <v>1.109006458392271</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.063300753581911</v>
+        <v>1.104238409224084</v>
       </c>
       <c r="D4">
-        <v>1.076389949324474</v>
+        <v>1.113849365977964</v>
       </c>
       <c r="E4">
-        <v>1.069406421978903</v>
+        <v>1.106084435314537</v>
       </c>
       <c r="F4">
-        <v>1.081328799379231</v>
+        <v>1.121156466992827</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071812075589007</v>
+        <v>1.058856345452827</v>
       </c>
       <c r="J4">
-        <v>1.081213008098338</v>
+        <v>1.108464993262522</v>
       </c>
       <c r="K4">
-        <v>1.085646202231093</v>
+        <v>1.116151187825904</v>
       </c>
       <c r="L4">
-        <v>1.078733569732106</v>
+        <v>1.108403193068623</v>
       </c>
       <c r="M4">
-        <v>1.090535586374449</v>
+        <v>1.123442580197824</v>
       </c>
       <c r="N4">
-        <v>1.082748454586704</v>
+        <v>1.110039140695666</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.06594944542929</v>
+        <v>1.104762449795251</v>
       </c>
       <c r="D5">
-        <v>1.078909174110815</v>
+        <v>1.114359056991372</v>
       </c>
       <c r="E5">
-        <v>1.071797339471596</v>
+        <v>1.106564914903571</v>
       </c>
       <c r="F5">
-        <v>1.083905245322912</v>
+        <v>1.121680683974865</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072697722807169</v>
+        <v>1.058991388265073</v>
       </c>
       <c r="J5">
-        <v>1.083390978282818</v>
+        <v>1.108897557669275</v>
       </c>
       <c r="K5">
-        <v>1.087937084647785</v>
+        <v>1.116611983837083</v>
       </c>
       <c r="L5">
-        <v>1.080895279363469</v>
+        <v>1.108834457342321</v>
       </c>
       <c r="M5">
-        <v>1.092884625909847</v>
+        <v>1.123918226783871</v>
       </c>
       <c r="N5">
-        <v>1.084929517738663</v>
+        <v>1.110472319393492</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.066390929911003</v>
+        <v>1.104850387613674</v>
       </c>
       <c r="D6">
-        <v>1.079329137050768</v>
+        <v>1.114444589174882</v>
       </c>
       <c r="E6">
-        <v>1.072195879659017</v>
+        <v>1.106645539942</v>
       </c>
       <c r="F6">
-        <v>1.084334763130244</v>
+        <v>1.121768655699227</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072845068907818</v>
+        <v>1.059014017347132</v>
       </c>
       <c r="J6">
-        <v>1.083753899194905</v>
+        <v>1.108970131367547</v>
       </c>
       <c r="K6">
-        <v>1.088318869490615</v>
+        <v>1.116689299947007</v>
       </c>
       <c r="L6">
-        <v>1.081255490884897</v>
+        <v>1.108906812297229</v>
       </c>
       <c r="M6">
-        <v>1.093276124120598</v>
+        <v>1.123998037027761</v>
       </c>
       <c r="N6">
-        <v>1.085292954040072</v>
+        <v>1.110544996154741</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.063336365426969</v>
+        <v>1.10424541490229</v>
       </c>
       <c r="D7">
-        <v>1.076423816512487</v>
+        <v>1.113856179666739</v>
       </c>
       <c r="E7">
-        <v>1.069438566523669</v>
+        <v>1.106090858840524</v>
       </c>
       <c r="F7">
-        <v>1.081363434750422</v>
+        <v>1.121163474740673</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071824001584106</v>
+        <v>1.058858152933874</v>
       </c>
       <c r="J7">
-        <v>1.081242298000919</v>
+        <v>1.108470776956171</v>
       </c>
       <c r="K7">
-        <v>1.085677007298265</v>
+        <v>1.116157348604616</v>
       </c>
       <c r="L7">
-        <v>1.078762640950173</v>
+        <v>1.10840895941983</v>
       </c>
       <c r="M7">
-        <v>1.090567172038604</v>
+        <v>1.123448939366943</v>
       </c>
       <c r="N7">
-        <v>1.082777786084306</v>
+        <v>1.110044932602824</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.050069320486792</v>
+        <v>1.101709220492709</v>
       </c>
       <c r="D8">
-        <v>1.063814255435129</v>
+        <v>1.11138976348219</v>
       </c>
       <c r="E8">
-        <v>1.057466414245958</v>
+        <v>1.103765076198789</v>
       </c>
       <c r="F8">
-        <v>1.068469727808858</v>
+        <v>1.11862703464875</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067348746720245</v>
+        <v>1.058200079359981</v>
       </c>
       <c r="J8">
-        <v>1.070318508522601</v>
+        <v>1.106375366896248</v>
       </c>
       <c r="K8">
-        <v>1.074194013425994</v>
+        <v>1.113926001715994</v>
       </c>
       <c r="L8">
-        <v>1.06792041311631</v>
+        <v>1.106319759336098</v>
       </c>
       <c r="M8">
-        <v>1.078795730328258</v>
+        <v>1.121146014936928</v>
       </c>
       <c r="N8">
-        <v>1.071838483571952</v>
+        <v>1.107946546820269</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.024465285085736</v>
+        <v>1.097210444145246</v>
       </c>
       <c r="D9">
-        <v>1.03952253762619</v>
+        <v>1.107016089428074</v>
       </c>
       <c r="E9">
-        <v>1.034383550977951</v>
+        <v>1.099637955867769</v>
       </c>
       <c r="F9">
-        <v>1.043639424215518</v>
+        <v>1.114130224553055</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058558271102125</v>
+        <v>1.057015211030872</v>
       </c>
       <c r="J9">
-        <v>1.049182736527747</v>
+        <v>1.102650948272683</v>
       </c>
       <c r="K9">
-        <v>1.052005357432443</v>
+        <v>1.109963171007973</v>
       </c>
       <c r="L9">
-        <v>1.046942366160662</v>
+        <v>1.102606017408446</v>
       </c>
       <c r="M9">
-        <v>1.056062048300499</v>
+        <v>1.117057362242372</v>
       </c>
       <c r="N9">
-        <v>1.050672696356558</v>
+        <v>1.104216839095061</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005492574252204</v>
+        <v>1.094190001397307</v>
       </c>
       <c r="D10">
-        <v>1.021560546057695</v>
+        <v>1.104080568257523</v>
       </c>
       <c r="E10">
-        <v>1.017302906788434</v>
+        <v>1.096865996989373</v>
       </c>
       <c r="F10">
-        <v>1.025284837952405</v>
+        <v>1.111112747520449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051944542248802</v>
+        <v>1.056207904682007</v>
       </c>
       <c r="J10">
-        <v>1.033489953462046</v>
+        <v>1.100145358318824</v>
       </c>
       <c r="K10">
-        <v>1.035551132393167</v>
+        <v>1.107299345823294</v>
       </c>
       <c r="L10">
-        <v>1.031366624992455</v>
+        <v>1.100107351346437</v>
       </c>
       <c r="M10">
-        <v>1.039212096210363</v>
+        <v>1.114309827048686</v>
       </c>
       <c r="N10">
-        <v>1.034957627738916</v>
+        <v>1.101707690916073</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.996707968107825</v>
+        <v>1.092876781716724</v>
       </c>
       <c r="D11">
-        <v>1.013255413642368</v>
+        <v>1.102804498595107</v>
       </c>
       <c r="E11">
-        <v>1.009402513496208</v>
+        <v>1.095660569430133</v>
       </c>
       <c r="F11">
-        <v>1.016799419364942</v>
+        <v>1.109801213914177</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048860123294756</v>
+        <v>1.055854113793325</v>
       </c>
       <c r="J11">
-        <v>1.02621834365567</v>
+        <v>1.09905479187921</v>
       </c>
       <c r="K11">
-        <v>1.027931608101147</v>
+        <v>1.106140417918077</v>
       </c>
       <c r="L11">
-        <v>1.024149264156073</v>
+        <v>1.099019733826887</v>
       </c>
       <c r="M11">
-        <v>1.031411328047946</v>
+        <v>1.113114684660837</v>
       </c>
       <c r="N11">
-        <v>1.02767569141255</v>
+        <v>1.100615575747025</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.993346702685015</v>
+        <v>1.09238816464194</v>
       </c>
       <c r="D12">
-        <v>1.010079587174177</v>
+        <v>1.102329739052891</v>
       </c>
       <c r="E12">
-        <v>1.00638106503244</v>
+        <v>1.095212023050006</v>
       </c>
       <c r="F12">
-        <v>1.013554828147845</v>
+        <v>1.109313284315604</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047676766084007</v>
+        <v>1.055722057722872</v>
       </c>
       <c r="J12">
-        <v>1.023435335754065</v>
+        <v>1.098648839722484</v>
       </c>
       <c r="K12">
-        <v>1.025016192886544</v>
+        <v>1.105709095644322</v>
       </c>
       <c r="L12">
-        <v>1.021387026559685</v>
+        <v>1.098614869376355</v>
       </c>
       <c r="M12">
-        <v>1.028426866394258</v>
+        <v>1.112669914933994</v>
       </c>
       <c r="N12">
-        <v>1.02488873132051</v>
+        <v>1.100209047091673</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9940723880024619</v>
+        <v>1.092493012579027</v>
       </c>
       <c r="D13">
-        <v>1.010765143281617</v>
+        <v>1.102431611836777</v>
       </c>
       <c r="E13">
-        <v>1.007033313184942</v>
+        <v>1.095308274206025</v>
       </c>
       <c r="F13">
-        <v>1.014255220576916</v>
+        <v>1.109417982004422</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047932388096287</v>
+        <v>1.055750413398475</v>
       </c>
       <c r="J13">
-        <v>1.024036203744928</v>
+        <v>1.098735957429474</v>
       </c>
       <c r="K13">
-        <v>1.025645614583477</v>
+        <v>1.10580165433083</v>
       </c>
       <c r="L13">
-        <v>1.021983409629584</v>
+        <v>1.098701754117295</v>
       </c>
       <c r="M13">
-        <v>1.02907118121602</v>
+        <v>1.112765357964704</v>
       </c>
       <c r="N13">
-        <v>1.025490452612841</v>
+        <v>1.1002962885158</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9964322133163456</v>
+        <v>1.092836409532227</v>
       </c>
       <c r="D14">
-        <v>1.01299483052709</v>
+        <v>1.102765270679212</v>
       </c>
       <c r="E14">
-        <v>1.009154605156786</v>
+        <v>1.095623508837494</v>
       </c>
       <c r="F14">
-        <v>1.016533190481248</v>
+        <v>1.109760897303611</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048763104664223</v>
+        <v>1.055843211148952</v>
       </c>
       <c r="J14">
-        <v>1.025990040694457</v>
+        <v>1.099021253563599</v>
       </c>
       <c r="K14">
-        <v>1.027692428006028</v>
+        <v>1.106104782049928</v>
       </c>
       <c r="L14">
-        <v>1.023922664872368</v>
+        <v>1.098986285579083</v>
       </c>
       <c r="M14">
-        <v>1.031166477293681</v>
+        <v>1.113077937139841</v>
       </c>
       <c r="N14">
-        <v>1.027447064234946</v>
+        <v>1.100581989803159</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9978727289105485</v>
+        <v>1.093047877138991</v>
       </c>
       <c r="D15">
-        <v>1.014356172385459</v>
+        <v>1.102970746093517</v>
       </c>
       <c r="E15">
-        <v>1.010449715603077</v>
+        <v>1.095817629005289</v>
       </c>
       <c r="F15">
-        <v>1.017924034072834</v>
+        <v>1.109972076280647</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049269793513077</v>
+        <v>1.055900301539929</v>
       </c>
       <c r="J15">
-        <v>1.027182647061962</v>
+        <v>1.099196918365189</v>
       </c>
       <c r="K15">
-        <v>1.028941884505687</v>
+        <v>1.10629143641502</v>
       </c>
       <c r="L15">
-        <v>1.025106371955532</v>
+        <v>1.099161478218641</v>
       </c>
       <c r="M15">
-        <v>1.032445569050871</v>
+        <v>1.113270415397882</v>
       </c>
       <c r="N15">
-        <v>1.028641364240287</v>
+        <v>1.100757904068916</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006062558933069</v>
+        <v>1.094277040631013</v>
       </c>
       <c r="D16">
-        <v>1.02209967566328</v>
+        <v>1.104165150068009</v>
       </c>
       <c r="E16">
-        <v>1.017815707752447</v>
+        <v>1.096945886761176</v>
       </c>
       <c r="F16">
-        <v>1.025835695422347</v>
+        <v>1.111199683391564</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052144232228174</v>
+        <v>1.05623129497966</v>
       </c>
       <c r="J16">
-        <v>1.033961667056992</v>
+        <v>1.100217615190338</v>
       </c>
       <c r="K16">
-        <v>1.036045516812266</v>
+        <v>1.107376142811817</v>
       </c>
       <c r="L16">
-        <v>1.031834820141693</v>
+        <v>1.100179411449052</v>
       </c>
       <c r="M16">
-        <v>1.039718281575887</v>
+        <v>1.114389028101345</v>
       </c>
       <c r="N16">
-        <v>1.035430011221273</v>
+        <v>1.101780050400633</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011039231225815</v>
+        <v>1.095046612816651</v>
       </c>
       <c r="D17">
-        <v>1.026808250509978</v>
+        <v>1.104913020898275</v>
       </c>
       <c r="E17">
-        <v>1.022294030334816</v>
+        <v>1.097652217797389</v>
       </c>
       <c r="F17">
-        <v>1.030646834462857</v>
+        <v>1.111968387469877</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053885319174114</v>
+        <v>1.056437782421467</v>
       </c>
       <c r="J17">
-        <v>1.03807969953612</v>
+        <v>1.100856349117276</v>
       </c>
       <c r="K17">
-        <v>1.04036201273553</v>
+        <v>1.108055069179867</v>
       </c>
       <c r="L17">
-        <v>1.0359221387758</v>
+        <v>1.100816398492635</v>
       </c>
       <c r="M17">
-        <v>1.044138035728529</v>
+        <v>1.115089231234418</v>
       </c>
       <c r="N17">
-        <v>1.039553891778867</v>
+        <v>1.102419691403011</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013888099694712</v>
+        <v>1.095494976972012</v>
       </c>
       <c r="D18">
-        <v>1.029504695128632</v>
+        <v>1.105348763428927</v>
       </c>
       <c r="E18">
-        <v>1.024858358260979</v>
+        <v>1.09806371330695</v>
       </c>
       <c r="F18">
-        <v>1.03340212978792</v>
+        <v>1.112416283994993</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054879928216122</v>
+        <v>1.05655781625182</v>
       </c>
       <c r="J18">
-        <v>1.04043650733962</v>
+        <v>1.101228370113633</v>
       </c>
       <c r="K18">
-        <v>1.042832858600057</v>
+        <v>1.108450548810761</v>
       </c>
       <c r="L18">
-        <v>1.038261369490051</v>
+        <v>1.101187395835013</v>
       </c>
       <c r="M18">
-        <v>1.046668174452855</v>
+        <v>1.115497124423706</v>
       </c>
       <c r="N18">
-        <v>1.041914046519778</v>
+        <v>1.102792240711854</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014850685010608</v>
+        <v>1.095647771092851</v>
       </c>
       <c r="D19">
-        <v>1.030415950025092</v>
+        <v>1.105497260032057</v>
       </c>
       <c r="E19">
-        <v>1.025724920209922</v>
+        <v>1.098203939299688</v>
       </c>
       <c r="F19">
-        <v>1.034333292989874</v>
+        <v>1.112568925209536</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055215635046409</v>
+        <v>1.056598675928403</v>
       </c>
       <c r="J19">
-        <v>1.041232737561632</v>
+        <v>1.10135512842342</v>
       </c>
       <c r="K19">
-        <v>1.043667692641959</v>
+        <v>1.108585308493152</v>
       </c>
       <c r="L19">
-        <v>1.039051661449285</v>
+        <v>1.101313804311687</v>
       </c>
       <c r="M19">
-        <v>1.047523073524452</v>
+        <v>1.115636117368365</v>
       </c>
       <c r="N19">
-        <v>1.042711407480034</v>
+        <v>1.10291917903298</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010510944131088</v>
+        <v>1.094964098381255</v>
       </c>
       <c r="D20">
-        <v>1.026308311997778</v>
+        <v>1.104832831036144</v>
       </c>
       <c r="E20">
-        <v>1.021818565940774</v>
+        <v>1.097576486572795</v>
       </c>
       <c r="F20">
-        <v>1.030135994104817</v>
+        <v>1.111885962163141</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053700712328068</v>
+        <v>1.056415670408737</v>
       </c>
       <c r="J20">
-        <v>1.037642614119388</v>
+        <v>1.10078787519671</v>
       </c>
       <c r="K20">
-        <v>1.039903815107498</v>
+        <v>1.107982281439688</v>
       </c>
       <c r="L20">
-        <v>1.035488313185631</v>
+        <v>1.100748112486936</v>
       </c>
       <c r="M20">
-        <v>1.0436688578391</v>
+        <v>1.115014160374452</v>
       </c>
       <c r="N20">
-        <v>1.039116185650709</v>
+        <v>1.102351120241624</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9957401327989324</v>
+        <v>1.092735310772911</v>
       </c>
       <c r="D21">
-        <v>1.012340860030648</v>
+        <v>1.102667037927515</v>
       </c>
       <c r="E21">
-        <v>1.008532437637937</v>
+        <v>1.09553070228065</v>
       </c>
       <c r="F21">
-        <v>1.01586505389842</v>
+        <v>1.109659938683581</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048519560360496</v>
+        <v>1.055815902322775</v>
       </c>
       <c r="J21">
-        <v>1.025417043340835</v>
+        <v>1.098937265076333</v>
       </c>
       <c r="K21">
-        <v>1.027092143112552</v>
+        <v>1.106015541995572</v>
       </c>
       <c r="L21">
-        <v>1.023353943581627</v>
+        <v>1.09890252248218</v>
       </c>
       <c r="M21">
-        <v>1.030551965242918</v>
+        <v>1.112985913756183</v>
       </c>
       <c r="N21">
-        <v>1.026873253159358</v>
+        <v>1.100497882042607</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9858760156842771</v>
+        <v>1.091329175483493</v>
       </c>
       <c r="D22">
-        <v>1.003025043916877</v>
+        <v>1.101300848205046</v>
       </c>
       <c r="E22">
-        <v>0.9996687545341426</v>
+        <v>1.094239814179975</v>
       </c>
       <c r="F22">
-        <v>1.00634784796933</v>
+        <v>1.108255895767877</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045041014417814</v>
+        <v>1.055435083607226</v>
       </c>
       <c r="J22">
-        <v>1.017248890041404</v>
+        <v>1.097768684712124</v>
       </c>
       <c r="K22">
-        <v>1.018536811350096</v>
+        <v>1.104774075479113</v>
       </c>
       <c r="L22">
-        <v>1.015246776319145</v>
+        <v>1.097737054049719</v>
       </c>
       <c r="M22">
-        <v>1.02179459296863</v>
+        <v>1.111705799309234</v>
       </c>
       <c r="N22">
-        <v>1.018693500145341</v>
+        <v>1.099327642160243</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9911649152933613</v>
+        <v>1.092075058699898</v>
       </c>
       <c r="D23">
-        <v>1.008018761077447</v>
+        <v>1.102025522932857</v>
       </c>
       <c r="E23">
-        <v>1.004420309757841</v>
+        <v>1.094924584294969</v>
       </c>
       <c r="F23">
-        <v>1.011449427922895</v>
+        <v>1.109000635904519</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046907784740676</v>
+        <v>1.05563731822517</v>
       </c>
       <c r="J23">
-        <v>1.021628733708361</v>
+        <v>1.09838865514216</v>
       </c>
       <c r="K23">
-        <v>1.023123850075539</v>
+        <v>1.105432672342628</v>
       </c>
       <c r="L23">
-        <v>1.019593910933395</v>
+        <v>1.09835537908425</v>
       </c>
       <c r="M23">
-        <v>1.026489792053847</v>
+        <v>1.112384882114025</v>
       </c>
       <c r="N23">
-        <v>1.023079563692681</v>
+        <v>1.099948493019402</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010749820085042</v>
+        <v>1.095001384691263</v>
       </c>
       <c r="D24">
-        <v>1.026534366309615</v>
+        <v>1.104869066859125</v>
       </c>
       <c r="E24">
-        <v>1.022033554739699</v>
+        <v>1.097610707783665</v>
       </c>
       <c r="F24">
-        <v>1.03036697748063</v>
+        <v>1.111923208080143</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053784192586399</v>
+        <v>1.056425663132297</v>
       </c>
       <c r="J24">
-        <v>1.037840253031334</v>
+        <v>1.100818817287264</v>
       </c>
       <c r="K24">
-        <v>1.040110999009033</v>
+        <v>1.108015172713072</v>
       </c>
       <c r="L24">
-        <v>1.035684478084544</v>
+        <v>1.100778969681433</v>
       </c>
       <c r="M24">
-        <v>1.043881006122888</v>
+        <v>1.11504808328154</v>
       </c>
       <c r="N24">
-        <v>1.039314105232579</v>
+        <v>1.102382106273495</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.031385910750652</v>
+        <v>1.098377135963571</v>
       </c>
       <c r="D25">
-        <v>1.04608270406251</v>
+        <v>1.108150177193572</v>
       </c>
       <c r="E25">
-        <v>1.040619404549599</v>
+        <v>1.100708448826841</v>
       </c>
       <c r="F25">
-        <v>1.05034406314753</v>
+        <v>1.115296119467919</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060951452789638</v>
+        <v>1.057324563192102</v>
       </c>
       <c r="J25">
-        <v>1.054901290971912</v>
+        <v>1.103617709203385</v>
       </c>
       <c r="K25">
-        <v>1.058005414018188</v>
+        <v>1.110991438948261</v>
       </c>
       <c r="L25">
-        <v>1.052618260762593</v>
+        <v>1.103570051244677</v>
       </c>
       <c r="M25">
-        <v>1.062208071955266</v>
+        <v>1.11811812540738</v>
       </c>
       <c r="N25">
-        <v>1.056399371803962</v>
+        <v>1.105184972937174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_149/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_149/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.101054333566038</v>
+        <v>1.046515455296107</v>
       </c>
       <c r="D2">
-        <v>1.110752982992693</v>
+        <v>1.060439090229264</v>
       </c>
       <c r="E2">
-        <v>1.103164413499877</v>
+        <v>1.054260604385891</v>
       </c>
       <c r="F2">
-        <v>1.117972245795065</v>
+        <v>1.065019092189877</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058028964873843</v>
+        <v>1.066139781217435</v>
       </c>
       <c r="J2">
-        <v>1.10583378829899</v>
+        <v>1.067388646492665</v>
       </c>
       <c r="K2">
-        <v>1.11334950570567</v>
+        <v>1.071116049887587</v>
       </c>
       <c r="L2">
-        <v>1.105779761942219</v>
+        <v>1.065012423810023</v>
       </c>
       <c r="M2">
-        <v>1.120551114044796</v>
+        <v>1.075641254602951</v>
       </c>
       <c r="N2">
-        <v>1.107404199119283</v>
+        <v>1.068904460801874</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.102989792001522</v>
+        <v>1.056863778618566</v>
       </c>
       <c r="D3">
-        <v>1.112635034171671</v>
+        <v>1.070270107608998</v>
       </c>
       <c r="E3">
-        <v>1.104939490979827</v>
+        <v>1.063596893327022</v>
       </c>
       <c r="F3">
-        <v>1.119907604759193</v>
+        <v>1.075070603868806</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058533279833621</v>
+        <v>1.069648506780593</v>
       </c>
       <c r="J3">
-        <v>1.107433775406764</v>
+        <v>1.075915797848618</v>
       </c>
       <c r="K3">
-        <v>1.115052904158254</v>
+        <v>1.08007639874206</v>
       </c>
       <c r="L3">
-        <v>1.107375049459709</v>
+        <v>1.073475911325087</v>
       </c>
       <c r="M3">
-        <v>1.122308997660593</v>
+        <v>1.084825261671864</v>
       </c>
       <c r="N3">
-        <v>1.109006458392271</v>
+        <v>1.07744372169083</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.104238409224084</v>
+        <v>1.063300753581911</v>
       </c>
       <c r="D4">
-        <v>1.113849365977964</v>
+        <v>1.076389949324474</v>
       </c>
       <c r="E4">
-        <v>1.106084435314537</v>
+        <v>1.069406421978903</v>
       </c>
       <c r="F4">
-        <v>1.121156466992827</v>
+        <v>1.08132879937923</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058856345452827</v>
+        <v>1.071812075589007</v>
       </c>
       <c r="J4">
-        <v>1.108464993262522</v>
+        <v>1.081213008098338</v>
       </c>
       <c r="K4">
-        <v>1.116151187825904</v>
+        <v>1.085646202231093</v>
       </c>
       <c r="L4">
-        <v>1.108403193068623</v>
+        <v>1.078733569732106</v>
       </c>
       <c r="M4">
-        <v>1.123442580197824</v>
+        <v>1.090535586374449</v>
       </c>
       <c r="N4">
-        <v>1.110039140695666</v>
+        <v>1.082748454586703</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.104762449795251</v>
+        <v>1.065949445429285</v>
       </c>
       <c r="D5">
-        <v>1.114359056991372</v>
+        <v>1.07890917411081</v>
       </c>
       <c r="E5">
-        <v>1.106564914903571</v>
+        <v>1.071797339471591</v>
       </c>
       <c r="F5">
-        <v>1.121680683974865</v>
+        <v>1.083905245322907</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058991388265073</v>
+        <v>1.072697722807167</v>
       </c>
       <c r="J5">
-        <v>1.108897557669275</v>
+        <v>1.083390978282814</v>
       </c>
       <c r="K5">
-        <v>1.116611983837083</v>
+        <v>1.08793708464778</v>
       </c>
       <c r="L5">
-        <v>1.108834457342321</v>
+        <v>1.080895279363464</v>
       </c>
       <c r="M5">
-        <v>1.123918226783871</v>
+        <v>1.092884625909842</v>
       </c>
       <c r="N5">
-        <v>1.110472319393492</v>
+        <v>1.084929517738658</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.104850387613674</v>
+        <v>1.066390929911004</v>
       </c>
       <c r="D6">
-        <v>1.114444589174882</v>
+        <v>1.079329137050769</v>
       </c>
       <c r="E6">
-        <v>1.106645539942</v>
+        <v>1.072195879659018</v>
       </c>
       <c r="F6">
-        <v>1.121768655699227</v>
+        <v>1.084334763130244</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059014017347132</v>
+        <v>1.072845068907819</v>
       </c>
       <c r="J6">
-        <v>1.108970131367547</v>
+        <v>1.083753899194905</v>
       </c>
       <c r="K6">
-        <v>1.116689299947007</v>
+        <v>1.088318869490615</v>
       </c>
       <c r="L6">
-        <v>1.108906812297229</v>
+        <v>1.081255490884897</v>
       </c>
       <c r="M6">
-        <v>1.123998037027761</v>
+        <v>1.093276124120599</v>
       </c>
       <c r="N6">
-        <v>1.110544996154741</v>
+        <v>1.085292954040072</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.10424541490229</v>
+        <v>1.063336365426968</v>
       </c>
       <c r="D7">
-        <v>1.113856179666739</v>
+        <v>1.076423816512486</v>
       </c>
       <c r="E7">
-        <v>1.106090858840524</v>
+        <v>1.069438566523667</v>
       </c>
       <c r="F7">
-        <v>1.121163474740673</v>
+        <v>1.081363434750421</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058858152933874</v>
+        <v>1.071824001584105</v>
       </c>
       <c r="J7">
-        <v>1.108470776956171</v>
+        <v>1.081242298000918</v>
       </c>
       <c r="K7">
-        <v>1.116157348604616</v>
+        <v>1.085677007298264</v>
       </c>
       <c r="L7">
-        <v>1.10840895941983</v>
+        <v>1.078762640950172</v>
       </c>
       <c r="M7">
-        <v>1.123448939366943</v>
+        <v>1.090567172038603</v>
       </c>
       <c r="N7">
-        <v>1.110044932602824</v>
+        <v>1.082777786084304</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.101709220492709</v>
+        <v>1.05006932048679</v>
       </c>
       <c r="D8">
-        <v>1.11138976348219</v>
+        <v>1.063814255435127</v>
       </c>
       <c r="E8">
-        <v>1.103765076198789</v>
+        <v>1.057466414245956</v>
       </c>
       <c r="F8">
-        <v>1.11862703464875</v>
+        <v>1.068469727808855</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058200079359981</v>
+        <v>1.067348746720244</v>
       </c>
       <c r="J8">
-        <v>1.106375366896248</v>
+        <v>1.070318508522599</v>
       </c>
       <c r="K8">
-        <v>1.113926001715994</v>
+        <v>1.074194013425991</v>
       </c>
       <c r="L8">
-        <v>1.106319759336098</v>
+        <v>1.067920413116307</v>
       </c>
       <c r="M8">
-        <v>1.121146014936928</v>
+        <v>1.078795730328255</v>
       </c>
       <c r="N8">
-        <v>1.107946546820269</v>
+        <v>1.071838483571949</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.097210444145246</v>
+        <v>1.024465285085735</v>
       </c>
       <c r="D9">
-        <v>1.107016089428074</v>
+        <v>1.039522537626189</v>
       </c>
       <c r="E9">
-        <v>1.099637955867769</v>
+        <v>1.03438355097795</v>
       </c>
       <c r="F9">
-        <v>1.114130224553055</v>
+        <v>1.043639424215517</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057015211030872</v>
+        <v>1.058558271102125</v>
       </c>
       <c r="J9">
-        <v>1.102650948272683</v>
+        <v>1.049182736527746</v>
       </c>
       <c r="K9">
-        <v>1.109963171007973</v>
+        <v>1.052005357432442</v>
       </c>
       <c r="L9">
-        <v>1.102606017408446</v>
+        <v>1.046942366160662</v>
       </c>
       <c r="M9">
-        <v>1.117057362242372</v>
+        <v>1.056062048300498</v>
       </c>
       <c r="N9">
-        <v>1.104216839095061</v>
+        <v>1.050672696356557</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.094190001397307</v>
+        <v>1.005492574252204</v>
       </c>
       <c r="D10">
-        <v>1.104080568257523</v>
+        <v>1.021560546057694</v>
       </c>
       <c r="E10">
-        <v>1.096865996989373</v>
+        <v>1.017302906788434</v>
       </c>
       <c r="F10">
-        <v>1.111112747520449</v>
+        <v>1.025284837952405</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056207904682007</v>
+        <v>1.051944542248802</v>
       </c>
       <c r="J10">
-        <v>1.100145358318824</v>
+        <v>1.033489953462045</v>
       </c>
       <c r="K10">
-        <v>1.107299345823294</v>
+        <v>1.035551132393167</v>
       </c>
       <c r="L10">
-        <v>1.100107351346437</v>
+        <v>1.031366624992455</v>
       </c>
       <c r="M10">
-        <v>1.114309827048686</v>
+        <v>1.039212096210363</v>
       </c>
       <c r="N10">
-        <v>1.101707690916073</v>
+        <v>1.034957627738916</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.092876781716724</v>
+        <v>0.9967079681078247</v>
       </c>
       <c r="D11">
-        <v>1.102804498595107</v>
+        <v>1.013255413642368</v>
       </c>
       <c r="E11">
-        <v>1.095660569430133</v>
+        <v>1.009402513496207</v>
       </c>
       <c r="F11">
-        <v>1.109801213914177</v>
+        <v>1.016799419364942</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055854113793325</v>
+        <v>1.048860123294756</v>
       </c>
       <c r="J11">
-        <v>1.09905479187921</v>
+        <v>1.02621834365567</v>
       </c>
       <c r="K11">
-        <v>1.106140417918077</v>
+        <v>1.027931608101147</v>
       </c>
       <c r="L11">
-        <v>1.099019733826887</v>
+        <v>1.024149264156073</v>
       </c>
       <c r="M11">
-        <v>1.113114684660837</v>
+        <v>1.031411328047946</v>
       </c>
       <c r="N11">
-        <v>1.100615575747025</v>
+        <v>1.02767569141255</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.09238816464194</v>
+        <v>0.9933467026850135</v>
       </c>
       <c r="D12">
-        <v>1.102329739052891</v>
+        <v>1.010079587174176</v>
       </c>
       <c r="E12">
-        <v>1.095212023050006</v>
+        <v>1.006381065032438</v>
       </c>
       <c r="F12">
-        <v>1.109313284315604</v>
+        <v>1.013554828147844</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055722057722872</v>
+        <v>1.047676766084006</v>
       </c>
       <c r="J12">
-        <v>1.098648839722484</v>
+        <v>1.023435335754064</v>
       </c>
       <c r="K12">
-        <v>1.105709095644322</v>
+        <v>1.025016192886542</v>
       </c>
       <c r="L12">
-        <v>1.098614869376355</v>
+        <v>1.021387026559684</v>
       </c>
       <c r="M12">
-        <v>1.112669914933994</v>
+        <v>1.028426866394257</v>
       </c>
       <c r="N12">
-        <v>1.100209047091673</v>
+        <v>1.024888731320508</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.092493012579027</v>
+        <v>0.9940723880024567</v>
       </c>
       <c r="D13">
-        <v>1.102431611836777</v>
+        <v>1.010765143281611</v>
       </c>
       <c r="E13">
-        <v>1.095308274206025</v>
+        <v>1.007033313184936</v>
       </c>
       <c r="F13">
-        <v>1.109417982004422</v>
+        <v>1.01425522057691</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055750413398475</v>
+        <v>1.047932388096285</v>
       </c>
       <c r="J13">
-        <v>1.098735957429474</v>
+        <v>1.024036203744923</v>
       </c>
       <c r="K13">
-        <v>1.10580165433083</v>
+        <v>1.025645614583472</v>
       </c>
       <c r="L13">
-        <v>1.098701754117295</v>
+        <v>1.021983409629579</v>
       </c>
       <c r="M13">
-        <v>1.112765357964704</v>
+        <v>1.029071181216014</v>
       </c>
       <c r="N13">
-        <v>1.1002962885158</v>
+        <v>1.025490452612836</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.092836409532227</v>
+        <v>0.9964322133163438</v>
       </c>
       <c r="D14">
-        <v>1.102765270679212</v>
+        <v>1.012994830527088</v>
       </c>
       <c r="E14">
-        <v>1.095623508837494</v>
+        <v>1.009154605156784</v>
       </c>
       <c r="F14">
-        <v>1.109760897303611</v>
+        <v>1.016533190481246</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055843211148952</v>
+        <v>1.048763104664223</v>
       </c>
       <c r="J14">
-        <v>1.099021253563599</v>
+        <v>1.025990040694455</v>
       </c>
       <c r="K14">
-        <v>1.106104782049928</v>
+        <v>1.027692428006026</v>
       </c>
       <c r="L14">
-        <v>1.098986285579083</v>
+        <v>1.023922664872366</v>
       </c>
       <c r="M14">
-        <v>1.113077937139841</v>
+        <v>1.031166477293679</v>
       </c>
       <c r="N14">
-        <v>1.100581989803159</v>
+        <v>1.027447064234944</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.093047877138991</v>
+        <v>0.9978727289105507</v>
       </c>
       <c r="D15">
-        <v>1.102970746093517</v>
+        <v>1.014356172385462</v>
       </c>
       <c r="E15">
-        <v>1.095817629005289</v>
+        <v>1.010449715603079</v>
       </c>
       <c r="F15">
-        <v>1.109972076280647</v>
+        <v>1.017924034072836</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055900301539929</v>
+        <v>1.049269793513078</v>
       </c>
       <c r="J15">
-        <v>1.099196918365189</v>
+        <v>1.027182647061964</v>
       </c>
       <c r="K15">
-        <v>1.10629143641502</v>
+        <v>1.028941884505689</v>
       </c>
       <c r="L15">
-        <v>1.099161478218641</v>
+        <v>1.025106371955534</v>
       </c>
       <c r="M15">
-        <v>1.113270415397882</v>
+        <v>1.032445569050873</v>
       </c>
       <c r="N15">
-        <v>1.100757904068916</v>
+        <v>1.028641364240289</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.094277040631013</v>
+        <v>1.006062558933073</v>
       </c>
       <c r="D16">
-        <v>1.104165150068009</v>
+        <v>1.022099675663285</v>
       </c>
       <c r="E16">
-        <v>1.096945886761176</v>
+        <v>1.017815707752451</v>
       </c>
       <c r="F16">
-        <v>1.111199683391564</v>
+        <v>1.025835695422352</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05623129497966</v>
+        <v>1.052144232228176</v>
       </c>
       <c r="J16">
-        <v>1.100217615190338</v>
+        <v>1.033961667056996</v>
       </c>
       <c r="K16">
-        <v>1.107376142811817</v>
+        <v>1.03604551681227</v>
       </c>
       <c r="L16">
-        <v>1.100179411449052</v>
+        <v>1.031834820141697</v>
       </c>
       <c r="M16">
-        <v>1.114389028101345</v>
+        <v>1.039718281575892</v>
       </c>
       <c r="N16">
-        <v>1.101780050400633</v>
+        <v>1.035430011221278</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.095046612816651</v>
+        <v>1.011039231225813</v>
       </c>
       <c r="D17">
-        <v>1.104913020898275</v>
+        <v>1.026808250509975</v>
       </c>
       <c r="E17">
-        <v>1.097652217797389</v>
+        <v>1.022294030334814</v>
       </c>
       <c r="F17">
-        <v>1.111968387469877</v>
+        <v>1.030646834462854</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056437782421467</v>
+        <v>1.053885319174113</v>
       </c>
       <c r="J17">
-        <v>1.100856349117276</v>
+        <v>1.038079699536117</v>
       </c>
       <c r="K17">
-        <v>1.108055069179867</v>
+        <v>1.040362012735527</v>
       </c>
       <c r="L17">
-        <v>1.100816398492635</v>
+        <v>1.035922138775798</v>
       </c>
       <c r="M17">
-        <v>1.115089231234418</v>
+        <v>1.044138035728527</v>
       </c>
       <c r="N17">
-        <v>1.102419691403011</v>
+        <v>1.039553891778864</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.095494976972012</v>
+        <v>1.013888099694713</v>
       </c>
       <c r="D18">
-        <v>1.105348763428927</v>
+        <v>1.029504695128633</v>
       </c>
       <c r="E18">
-        <v>1.09806371330695</v>
+        <v>1.02485835826098</v>
       </c>
       <c r="F18">
-        <v>1.112416283994993</v>
+        <v>1.033402129787921</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05655781625182</v>
+        <v>1.054879928216122</v>
       </c>
       <c r="J18">
-        <v>1.101228370113633</v>
+        <v>1.040436507339621</v>
       </c>
       <c r="K18">
-        <v>1.108450548810761</v>
+        <v>1.042832858600059</v>
       </c>
       <c r="L18">
-        <v>1.101187395835013</v>
+        <v>1.038261369490052</v>
       </c>
       <c r="M18">
-        <v>1.115497124423706</v>
+        <v>1.046668174452855</v>
       </c>
       <c r="N18">
-        <v>1.102792240711854</v>
+        <v>1.041914046519779</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.095647771092851</v>
+        <v>1.014850685010605</v>
       </c>
       <c r="D19">
-        <v>1.105497260032057</v>
+        <v>1.030415950025088</v>
       </c>
       <c r="E19">
-        <v>1.098203939299688</v>
+        <v>1.025724920209919</v>
       </c>
       <c r="F19">
-        <v>1.112568925209536</v>
+        <v>1.03433329298987</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056598675928403</v>
+        <v>1.055215635046407</v>
       </c>
       <c r="J19">
-        <v>1.10135512842342</v>
+        <v>1.041232737561629</v>
       </c>
       <c r="K19">
-        <v>1.108585308493152</v>
+        <v>1.043667692641955</v>
       </c>
       <c r="L19">
-        <v>1.101313804311687</v>
+        <v>1.039051661449282</v>
       </c>
       <c r="M19">
-        <v>1.115636117368365</v>
+        <v>1.047523073524449</v>
       </c>
       <c r="N19">
-        <v>1.10291917903298</v>
+        <v>1.042711407480031</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.094964098381255</v>
+        <v>1.010510944131087</v>
       </c>
       <c r="D20">
-        <v>1.104832831036144</v>
+        <v>1.026308311997777</v>
       </c>
       <c r="E20">
-        <v>1.097576486572795</v>
+        <v>1.021818565940773</v>
       </c>
       <c r="F20">
-        <v>1.111885962163141</v>
+        <v>1.030135994104817</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056415670408737</v>
+        <v>1.053700712328068</v>
       </c>
       <c r="J20">
-        <v>1.10078787519671</v>
+        <v>1.037642614119387</v>
       </c>
       <c r="K20">
-        <v>1.107982281439688</v>
+        <v>1.039903815107498</v>
       </c>
       <c r="L20">
-        <v>1.100748112486936</v>
+        <v>1.03548831318563</v>
       </c>
       <c r="M20">
-        <v>1.115014160374452</v>
+        <v>1.043668857839099</v>
       </c>
       <c r="N20">
-        <v>1.102351120241624</v>
+        <v>1.039116185650708</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.092735310772911</v>
+        <v>0.995740132798931</v>
       </c>
       <c r="D21">
-        <v>1.102667037927515</v>
+        <v>1.012340860030647</v>
       </c>
       <c r="E21">
-        <v>1.09553070228065</v>
+        <v>1.008532437637936</v>
       </c>
       <c r="F21">
-        <v>1.109659938683581</v>
+        <v>1.015865053898418</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055815902322775</v>
+        <v>1.048519560360496</v>
       </c>
       <c r="J21">
-        <v>1.098937265076333</v>
+        <v>1.025417043340834</v>
       </c>
       <c r="K21">
-        <v>1.106015541995572</v>
+        <v>1.027092143112551</v>
       </c>
       <c r="L21">
-        <v>1.09890252248218</v>
+        <v>1.023353943581626</v>
       </c>
       <c r="M21">
-        <v>1.112985913756183</v>
+        <v>1.030551965242917</v>
       </c>
       <c r="N21">
-        <v>1.100497882042607</v>
+        <v>1.026873253159357</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.091329175483493</v>
+        <v>0.9858760156842789</v>
       </c>
       <c r="D22">
-        <v>1.101300848205046</v>
+        <v>1.003025043916879</v>
       </c>
       <c r="E22">
-        <v>1.094239814179975</v>
+        <v>0.9996687545341447</v>
       </c>
       <c r="F22">
-        <v>1.108255895767877</v>
+        <v>1.006347847969332</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055435083607226</v>
+        <v>1.045041014417815</v>
       </c>
       <c r="J22">
-        <v>1.097768684712124</v>
+        <v>1.017248890041406</v>
       </c>
       <c r="K22">
-        <v>1.104774075479113</v>
+        <v>1.018536811350098</v>
       </c>
       <c r="L22">
-        <v>1.097737054049719</v>
+        <v>1.015246776319148</v>
       </c>
       <c r="M22">
-        <v>1.111705799309234</v>
+        <v>1.021794592968632</v>
       </c>
       <c r="N22">
-        <v>1.099327642160243</v>
+        <v>1.018693500145343</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.092075058699898</v>
+        <v>0.991164915293365</v>
       </c>
       <c r="D23">
-        <v>1.102025522932857</v>
+        <v>1.008018761077451</v>
       </c>
       <c r="E23">
-        <v>1.094924584294969</v>
+        <v>1.004420309757845</v>
       </c>
       <c r="F23">
-        <v>1.109000635904519</v>
+        <v>1.0114494279229</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05563731822517</v>
+        <v>1.046907784740678</v>
       </c>
       <c r="J23">
-        <v>1.09838865514216</v>
+        <v>1.021628733708365</v>
       </c>
       <c r="K23">
-        <v>1.105432672342628</v>
+        <v>1.023123850075543</v>
       </c>
       <c r="L23">
-        <v>1.09835537908425</v>
+        <v>1.019593910933399</v>
       </c>
       <c r="M23">
-        <v>1.112384882114025</v>
+        <v>1.026489792053851</v>
       </c>
       <c r="N23">
-        <v>1.099948493019402</v>
+        <v>1.023079563692685</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.095001384691263</v>
+        <v>1.010749820085043</v>
       </c>
       <c r="D24">
-        <v>1.104869066859125</v>
+        <v>1.026534366309617</v>
       </c>
       <c r="E24">
-        <v>1.097610707783665</v>
+        <v>1.0220335547397</v>
       </c>
       <c r="F24">
-        <v>1.111923208080143</v>
+        <v>1.030366977480631</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056425663132297</v>
+        <v>1.0537841925864</v>
       </c>
       <c r="J24">
-        <v>1.100818817287264</v>
+        <v>1.037840253031336</v>
       </c>
       <c r="K24">
-        <v>1.108015172713072</v>
+        <v>1.040110999009034</v>
       </c>
       <c r="L24">
-        <v>1.100778969681433</v>
+        <v>1.035684478084546</v>
       </c>
       <c r="M24">
-        <v>1.11504808328154</v>
+        <v>1.043881006122889</v>
       </c>
       <c r="N24">
-        <v>1.102382106273495</v>
+        <v>1.039314105232581</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.098377135963571</v>
+        <v>1.031385910750649</v>
       </c>
       <c r="D25">
-        <v>1.108150177193572</v>
+        <v>1.046082704062507</v>
       </c>
       <c r="E25">
-        <v>1.100708448826841</v>
+        <v>1.040619404549597</v>
       </c>
       <c r="F25">
-        <v>1.115296119467919</v>
+        <v>1.050344063147527</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057324563192102</v>
+        <v>1.060951452789637</v>
       </c>
       <c r="J25">
-        <v>1.103617709203385</v>
+        <v>1.05490129097191</v>
       </c>
       <c r="K25">
-        <v>1.110991438948261</v>
+        <v>1.058005414018185</v>
       </c>
       <c r="L25">
-        <v>1.103570051244677</v>
+        <v>1.052618260762591</v>
       </c>
       <c r="M25">
-        <v>1.11811812540738</v>
+        <v>1.062208071955264</v>
       </c>
       <c r="N25">
-        <v>1.105184972937174</v>
+        <v>1.056399371803959</v>
       </c>
     </row>
   </sheetData>
